--- a/data/Stalag_06_21/Results.xlsx
+++ b/data/Stalag_06_21/Results.xlsx
@@ -18,24 +18,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="188">
   <si>
     <t>Lab. #</t>
   </si>
   <si>
-    <t>Bezeich.</t>
-  </si>
-  <si>
-    <t>Art der Probe</t>
-  </si>
-  <si>
-    <t>Mess. Dat.</t>
-  </si>
-  <si>
-    <t>Tiefe</t>
-  </si>
-  <si>
-    <t>Einwaage (g)</t>
+    <t>Denomination</t>
+  </si>
+  <si>
+    <t>Sample type</t>
+  </si>
+  <si>
+    <t>Meas. Dat.</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Sample mass (g)</t>
   </si>
   <si>
     <t>TriSp13 (g)</t>
@@ -143,31 +143,31 @@
     <t>cm</t>
   </si>
   <si>
-    <t>gem.</t>
+    <t>meas.</t>
   </si>
   <si>
     <t>(%)</t>
   </si>
   <si>
-    <t>gem.+korr.</t>
+    <t>meas.+corr.</t>
   </si>
   <si>
     <t>244/233U</t>
   </si>
   <si>
-    <t>Fehler1</t>
+    <t>Error1</t>
   </si>
   <si>
     <t>235/236U</t>
   </si>
   <si>
-    <t>Fehler2</t>
+    <t>Error2</t>
   </si>
   <si>
     <t>238/236U</t>
   </si>
   <si>
-    <t>Fehler3</t>
+    <t>Error3</t>
   </si>
   <si>
     <t>Blank 234</t>
@@ -176,13 +176,13 @@
     <t>234U1</t>
   </si>
   <si>
-    <t>Fehler4</t>
+    <t>Error4</t>
   </si>
   <si>
     <t>234U2</t>
   </si>
   <si>
-    <t>Fehler5</t>
+    <t>Error5</t>
   </si>
   <si>
     <t>Blank 238</t>
@@ -191,25 +191,25 @@
     <t>238U1</t>
   </si>
   <si>
-    <t>Fehler6</t>
+    <t>Error6</t>
   </si>
   <si>
     <t>238U2</t>
   </si>
   <si>
-    <t>Fehler7</t>
+    <t>Error7</t>
   </si>
   <si>
     <t>234U/238U</t>
   </si>
   <si>
-    <t>Fehler8</t>
-  </si>
-  <si>
-    <t>234U/238Ukorr</t>
-  </si>
-  <si>
-    <t>Fehler9</t>
+    <t>Error8</t>
+  </si>
+  <si>
+    <t>234U/238Ucorr</t>
+  </si>
+  <si>
+    <t>Error9</t>
   </si>
   <si>
     <t>Blank 232</t>
@@ -218,13 +218,13 @@
     <t>232Th</t>
   </si>
   <si>
-    <t>Fehler10</t>
+    <t>Error10</t>
   </si>
   <si>
     <t>A232</t>
   </si>
   <si>
-    <t>Fehler11</t>
+    <t>Error11</t>
   </si>
   <si>
     <t>Ch. Bl. 230</t>
@@ -233,94 +233,94 @@
     <t>230Th1</t>
   </si>
   <si>
-    <t>Fehler12</t>
+    <t>Error12</t>
   </si>
   <si>
     <t>230Th2</t>
   </si>
   <si>
-    <t>Fehler13</t>
+    <t>Error13</t>
   </si>
   <si>
     <t>A230/232</t>
   </si>
   <si>
-    <t>Fehler14</t>
+    <t>Error14</t>
   </si>
   <si>
     <t>d234U</t>
   </si>
   <si>
-    <t>Fehler15</t>
+    <t>Error15</t>
   </si>
   <si>
     <t>230Th/238U</t>
   </si>
   <si>
-    <t>Fehler16</t>
-  </si>
-  <si>
-    <t>230Th/238Ukorr</t>
-  </si>
-  <si>
-    <t>Fehler17</t>
-  </si>
-  <si>
-    <t>Alter (unkorr.)</t>
-  </si>
-  <si>
-    <t>Fehler18</t>
-  </si>
-  <si>
-    <t>Fehler</t>
+    <t>Error16</t>
+  </si>
+  <si>
+    <t>230Th/238Ucorr</t>
+  </si>
+  <si>
+    <t>Error17</t>
+  </si>
+  <si>
+    <t>Age (uncorr.)</t>
+  </si>
+  <si>
+    <t>Error18</t>
+  </si>
+  <si>
+    <t>Error19</t>
   </si>
   <si>
     <t>232Th/238U</t>
   </si>
   <si>
-    <t>Fehler20</t>
+    <t>Error20</t>
   </si>
   <si>
     <t>(230Th/232Th)</t>
   </si>
   <si>
-    <t>Fehler21</t>
-  </si>
-  <si>
-    <t>Cheng korr.</t>
-  </si>
-  <si>
-    <t>Fehler22</t>
-  </si>
-  <si>
-    <t>Fehler23</t>
-  </si>
-  <si>
-    <t>Fehler24</t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
+    <t>Error21</t>
+  </si>
+  <si>
+    <t>Age corr.</t>
+  </si>
+  <si>
+    <t>Error22</t>
+  </si>
+  <si>
+    <t>Error23</t>
+  </si>
+  <si>
+    <t>Error24</t>
+  </si>
+  <si>
+    <t>Denom.</t>
   </si>
   <si>
     <t>d234U (initial)</t>
   </si>
   <si>
-    <t>Fehler25</t>
-  </si>
-  <si>
-    <t>Cheng korr</t>
-  </si>
-  <si>
-    <t>Fehler 1σ</t>
+    <t>Error25</t>
+  </si>
+  <si>
+    <t>Age corr. BP</t>
+  </si>
+  <si>
+    <t>Error 1σ</t>
   </si>
   <si>
     <t>2sig/t</t>
   </si>
   <si>
-    <t>Unkorr. Montefehler Erfolgsrate</t>
-  </si>
-  <si>
-    <t>Korr. Montefehler Erfolgsrate</t>
+    <t>Uncorr. MC error success rate</t>
+  </si>
+  <si>
+    <t>Corr. MC error success rate</t>
   </si>
   <si>
     <t>(abso.)</t>
@@ -344,7 +344,10 @@
     <t>(μg/g)</t>
   </si>
   <si>
-    <t>Akt. Ver.</t>
+    <t>Act. Rat.</t>
+  </si>
+  <si>
+    <t>Ac. Rat.</t>
   </si>
   <si>
     <t>(ng/g)</t>
@@ -359,9 +362,6 @@
     <t>(abso.) o/oo</t>
   </si>
   <si>
-    <t>Akt.Ver.</t>
-  </si>
-  <si>
     <t>(ka)</t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>Akt. Ver. initial</t>
+    <t>Act. Rat. initial</t>
   </si>
   <si>
     <t>Taylor 1. Ord.</t>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>(a)</t>
-  </si>
-  <si>
-    <t>Fehler 2σ</t>
   </si>
   <si>
     <t>234U</t>
@@ -445,16 +442,16 @@
     <t>230Th/232Th</t>
   </si>
   <si>
-    <t>d234U korr</t>
-  </si>
-  <si>
-    <t>Alter (korr.)</t>
-  </si>
-  <si>
-    <t>(Akt.Ver)</t>
-  </si>
-  <si>
-    <t>(Akt.Ver.)</t>
+    <t>d234U corr</t>
+  </si>
+  <si>
+    <t>Age (corr.)</t>
+  </si>
+  <si>
+    <t>(Act.Rat)</t>
+  </si>
+  <si>
+    <t>(Act.Rat.)</t>
   </si>
   <si>
     <t>(abso.) (o/oo)</t>
@@ -648,10 +645,10 @@
     <t>a230232_init_err_sst</t>
   </si>
   <si>
-    <t>standardBezeich</t>
-  </si>
-  <si>
-    <t>standardEinwaage</t>
+    <t>standardDenom</t>
+  </si>
+  <si>
+    <t>standardSampleMass</t>
   </si>
   <si>
     <t>standardTriSp13</t>
@@ -1097,11 +1094,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
@@ -2084,7 +2081,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
@@ -2123,26 +2120,26 @@
     <col min="38" max="38" width="23.7109375" customWidth="1"/>
     <col min="39" max="39" width="21.7109375" customWidth="1"/>
     <col min="40" max="40" width="23.7109375" customWidth="1"/>
-    <col min="41" max="41" width="16.7109375" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
     <col min="42" max="42" width="9.7109375" customWidth="1"/>
     <col min="43" max="43" width="20.7109375" customWidth="1"/>
     <col min="44" max="44" width="23.7109375" customWidth="1"/>
     <col min="45" max="45" width="23.7109375" customWidth="1"/>
     <col min="46" max="46" width="18.7109375" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
     <col min="49" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="21.7109375" customWidth="1"/>
     <col min="51" max="51" width="19.7109375" customWidth="1"/>
-    <col min="52" max="52" width="12.7109375" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" customWidth="1"/>
     <col min="54" max="54" width="20.7109375" customWidth="1"/>
     <col min="55" max="55" width="19.7109375" customWidth="1"/>
     <col min="56" max="56" width="19.7109375" customWidth="1"/>
     <col min="57" max="57" width="19.7109375" customWidth="1"/>
     <col min="58" max="58" width="19.7109375" customWidth="1"/>
-    <col min="59" max="59" width="32.7109375" customWidth="1"/>
-    <col min="60" max="60" width="30.7109375" customWidth="1"/>
+    <col min="59" max="59" width="30.7109375" customWidth="1"/>
+    <col min="60" max="60" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1">
@@ -2156,61 +2153,61 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>64</v>
@@ -2219,58 +2216,58 @@
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>84</v>
@@ -2279,25 +2276,25 @@
         <v>85</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>93</v>
@@ -2309,7 +2306,7 @@
         <v>94</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>96</v>
@@ -2383,7 +2380,7 @@
         <v>101</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>101</v>
@@ -2392,7 +2389,7 @@
         <v>106</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>101</v>
@@ -2413,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>101</v>
@@ -2422,10 +2419,10 @@
         <v>101</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>108</v>
@@ -2434,7 +2431,7 @@
         <v>101</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>101</v>
@@ -2476,10 +2473,10 @@
         <v>40</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BD2" s="2" t="s">
         <v>119</v>
@@ -2822,13 +2819,13 @@
         <v>5.1679</v>
       </c>
       <c r="AW4" s="4">
-        <v>0.2581</v>
+        <v>0.2605</v>
       </c>
       <c r="AX4" s="4">
         <v>0.2568012909742321</v>
       </c>
       <c r="AY4" s="4">
-        <v>4.994291685210626</v>
+        <v>5.040732212310609</v>
       </c>
       <c r="AZ4" s="4" t="s">
         <v>32</v>
@@ -2840,7 +2837,7 @@
         <v>11.39739258792816</v>
       </c>
       <c r="BC4" s="4">
-        <v>0.8214006907136504</v>
+        <v>0.8214014745077497</v>
       </c>
       <c r="BD4" s="4">
         <v>5109.900000000001</v>
@@ -3162,10 +3159,10 @@
         <v>1.4104</v>
       </c>
       <c r="AP6" s="4">
-        <v>0.0105</v>
+        <v>0.0107</v>
       </c>
       <c r="AQ6" s="4">
-        <v>0.7444696539988656</v>
+        <v>0.7586500283607486</v>
       </c>
       <c r="AR6" s="4">
         <v>0.0006122663798929997</v>
@@ -3183,13 +3180,13 @@
         <v>1.3606</v>
       </c>
       <c r="AW6" s="4">
-        <v>0.0273</v>
+        <v>0.0271</v>
       </c>
       <c r="AX6" s="4">
         <v>0.02708391171981831</v>
       </c>
       <c r="AY6" s="4">
-        <v>2.006467734822872</v>
+        <v>1.991768337498163</v>
       </c>
       <c r="AZ6" s="4" t="s">
         <v>33</v>
@@ -3201,7 +3198,7 @@
         <v>6.564526532043062</v>
       </c>
       <c r="BC6" s="4">
-        <v>0.6812077076071835</v>
+        <v>0.6812077048665016</v>
       </c>
       <c r="BD6" s="4">
         <v>1302.6</v>
@@ -3344,10 +3341,10 @@
         <v>586.7294000000001</v>
       </c>
       <c r="AP7" s="3">
-        <v>243.6604</v>
+        <v>250.0012</v>
       </c>
       <c r="AQ7" s="3">
-        <v>41.5285820004929</v>
+        <v>42.60928462081498</v>
       </c>
       <c r="AR7" s="3">
         <v>1.974794312560851E-05</v>
@@ -3365,13 +3362,13 @@
         <v>586.7277</v>
       </c>
       <c r="AW7" s="3">
-        <v>310.1934</v>
+        <v>304.7151</v>
       </c>
       <c r="AX7" s="3">
         <v>129.6003421268254</v>
       </c>
       <c r="AY7" s="3">
-        <v>52.86837488668083</v>
+        <v>51.93467088736393</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>31</v>
@@ -3380,7 +3377,7 @@
         <v>-1.915468120173665</v>
       </c>
       <c r="BC7" s="3">
-        <v>14.53160707536058</v>
+        <v>14.52821983802972</v>
       </c>
       <c r="BD7" s="3">
         <v>586669.7000000001</v>
@@ -3392,10 +3389,10 @@
         <v>22.08866943333771</v>
       </c>
       <c r="BG7" s="3">
-        <v>80.58</v>
+        <v>78.88</v>
       </c>
       <c r="BH7" s="3">
-        <v>79.28</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="8" spans="1:60" s="4" customFormat="1">
@@ -3523,10 +3520,10 @@
         <v>2.2739</v>
       </c>
       <c r="AP8" s="4">
-        <v>0.0197</v>
+        <v>0.0198</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0.8663529618716742</v>
+        <v>0.8707506926425965</v>
       </c>
       <c r="AR8" s="4">
         <v>0.0007170810952163293</v>
@@ -3544,13 +3541,13 @@
         <v>2.2157</v>
       </c>
       <c r="AW8" s="4">
-        <v>0.0348</v>
+        <v>0.0352</v>
       </c>
       <c r="AX8" s="4">
         <v>0.03516569595256649</v>
       </c>
       <c r="AY8" s="4">
-        <v>1.570609739585684</v>
+        <v>1.588662725098163</v>
       </c>
       <c r="AZ8" s="4" t="s">
         <v>34</v>
@@ -3562,7 +3559,7 @@
         <v>7.183005996337172</v>
       </c>
       <c r="BC8" s="4">
-        <v>1.335443368902732</v>
+        <v>1.335443373210453</v>
       </c>
       <c r="BD8" s="4">
         <v>2157.7</v>
@@ -3884,10 +3881,10 @@
         <v>1.6046</v>
       </c>
       <c r="AP10" s="4">
-        <v>0.0149</v>
+        <v>0.0153</v>
       </c>
       <c r="AQ10" s="4">
-        <v>0.9285803315468029</v>
+        <v>0.9535086625950392</v>
       </c>
       <c r="AR10" s="4">
         <v>0.0002122952321702626</v>
@@ -3905,13 +3902,13 @@
         <v>1.5874</v>
       </c>
       <c r="AW10" s="4">
-        <v>0.0175</v>
+        <v>0.018</v>
       </c>
       <c r="AX10" s="4">
         <v>0.0176842525828866</v>
       </c>
       <c r="AY10" s="4">
-        <v>1.102431649237748</v>
+        <v>1.133929696358826</v>
       </c>
       <c r="AZ10" s="4" t="s">
         <v>35</v>
@@ -3923,7 +3920,7 @@
         <v>9.023849296486739</v>
       </c>
       <c r="BC10" s="4">
-        <v>1.248094971151513</v>
+        <v>1.248094975762956</v>
       </c>
       <c r="BD10" s="4">
         <v>1529.4</v>
@@ -4245,10 +4242,10 @@
         <v>1.4874</v>
       </c>
       <c r="AP12" s="4">
-        <v>0.0126</v>
+        <v>0.0125</v>
       </c>
       <c r="AQ12" s="4">
-        <v>0.8471157724889067</v>
+        <v>0.8403926314374076</v>
       </c>
       <c r="AR12" s="4">
         <v>6.872716689727577E-05</v>
@@ -4266,13 +4263,13 @@
         <v>1.4818</v>
       </c>
       <c r="AW12" s="4">
-        <v>0.0125</v>
+        <v>0.0126</v>
       </c>
       <c r="AX12" s="4">
         <v>0.01276743612987086</v>
       </c>
       <c r="AY12" s="4">
-        <v>0.8435686327439601</v>
+        <v>0.8503171818059118</v>
       </c>
       <c r="AZ12" s="4" t="s">
         <v>36</v>
@@ -4284,7 +4281,7 @@
         <v>5.186300535735635</v>
       </c>
       <c r="BC12" s="4">
-        <v>1.394288641458921</v>
+        <v>1.394288641651735</v>
       </c>
       <c r="BD12" s="4">
         <v>1423.8</v>
@@ -4495,7 +4492,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -4506,9 +4503,9 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" customWidth="1"/>
@@ -4523,52 +4520,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -4576,34 +4573,34 @@
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>114</v>
@@ -4618,10 +4615,10 @@
         <v>114</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>40</v>
@@ -4730,13 +4727,13 @@
         <v>5.1679</v>
       </c>
       <c r="P4" s="4">
-        <v>0.2581</v>
+        <v>0.2605</v>
       </c>
       <c r="Q4" s="4">
         <v>11.39739258792816</v>
       </c>
       <c r="R4" s="4">
-        <v>0.8214006907136504</v>
+        <v>0.8214014745077497</v>
       </c>
       <c r="S4" s="4">
         <v>15</v>
@@ -4839,19 +4836,19 @@
         <v>1.4104</v>
       </c>
       <c r="N6" s="4">
-        <v>0.0105</v>
+        <v>0.0107</v>
       </c>
       <c r="O6" s="4">
         <v>1.3606</v>
       </c>
       <c r="P6" s="4">
-        <v>0.0273</v>
+        <v>0.0271</v>
       </c>
       <c r="Q6" s="4">
         <v>6.564526532043062</v>
       </c>
       <c r="R6" s="4">
-        <v>0.6812077076071835</v>
+        <v>0.6812077048665016</v>
       </c>
       <c r="S6" s="4">
         <v>16</v>
@@ -4898,19 +4895,19 @@
         <v>586.7294000000001</v>
       </c>
       <c r="N7" s="3">
-        <v>243.6604</v>
+        <v>250.0012</v>
       </c>
       <c r="O7" s="3">
         <v>586.7277</v>
       </c>
       <c r="P7" s="3">
-        <v>310.1934</v>
+        <v>304.7151</v>
       </c>
       <c r="Q7" s="3">
         <v>-1.915468120173665</v>
       </c>
       <c r="R7" s="3">
-        <v>14.53160707536058</v>
+        <v>14.52821983802972</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="4" customFormat="1">
@@ -4954,19 +4951,19 @@
         <v>2.2739</v>
       </c>
       <c r="N8" s="4">
-        <v>0.0197</v>
+        <v>0.0198</v>
       </c>
       <c r="O8" s="4">
         <v>2.2157</v>
       </c>
       <c r="P8" s="4">
-        <v>0.0348</v>
+        <v>0.0352</v>
       </c>
       <c r="Q8" s="4">
         <v>7.183005996337172</v>
       </c>
       <c r="R8" s="4">
-        <v>1.335443368902732</v>
+        <v>1.335443373210453</v>
       </c>
       <c r="S8" s="4">
         <v>42</v>
@@ -5069,19 +5066,19 @@
         <v>1.6046</v>
       </c>
       <c r="N10" s="4">
-        <v>0.0149</v>
+        <v>0.0153</v>
       </c>
       <c r="O10" s="4">
         <v>1.5874</v>
       </c>
       <c r="P10" s="4">
-        <v>0.0175</v>
+        <v>0.018</v>
       </c>
       <c r="Q10" s="4">
         <v>9.023849296486739</v>
       </c>
       <c r="R10" s="4">
-        <v>1.248094971151513</v>
+        <v>1.248094975762956</v>
       </c>
       <c r="S10" s="4">
         <v>43.5</v>
@@ -5184,19 +5181,19 @@
         <v>1.4874</v>
       </c>
       <c r="N12" s="4">
-        <v>0.0126</v>
+        <v>0.0125</v>
       </c>
       <c r="O12" s="4">
         <v>1.4818</v>
       </c>
       <c r="P12" s="4">
-        <v>0.0125</v>
+        <v>0.0126</v>
       </c>
       <c r="Q12" s="4">
         <v>5.186300535735635</v>
       </c>
       <c r="R12" s="4">
-        <v>1.394288641458921</v>
+        <v>1.394288641651735</v>
       </c>
       <c r="S12" s="4">
         <v>44.5</v>
@@ -5277,7 +5274,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="6" t="b">
         <v>1</v>
@@ -5285,7 +5282,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -5293,7 +5290,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -5309,7 +5306,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="b">
         <v>0</v>
@@ -5317,7 +5314,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6">
         <v>1.336402435064349</v>
@@ -5325,7 +5322,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6">
         <v>1.008202776684838</v>
@@ -5333,7 +5330,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6">
         <v>0.334493224630051</v>
@@ -5341,7 +5338,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6">
         <v>0.665506775369946</v>
@@ -5349,7 +5346,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="6">
         <v>1.025840620457897</v>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="6">
         <v>1.673784240557133</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6">
         <v>0.673784240557127</v>
@@ -5373,7 +5370,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="6">
         <v>-0.337307116990441</v>
@@ -5381,7 +5378,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="6">
         <v>0.336402435064353</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="6">
         <v>-0.34318587041139</v>
@@ -5397,7 +5394,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="6">
         <v>-1.025840620457897</v>
@@ -5405,7 +5402,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="6">
         <v>0.337307116990439</v>
@@ -5413,7 +5410,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="6">
         <v>0.682654750046506</v>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6">
         <v>9.1705E-06</v>
@@ -5437,7 +5434,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="6">
         <v>4.94752E-11</v>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="6">
         <v>2.82206E-06</v>
@@ -5453,7 +5450,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="6">
         <v>1.55125E-10</v>
@@ -5461,7 +5458,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="6">
         <v>6.02214129E+23</v>
@@ -5469,7 +5466,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="6">
         <v>137.881</v>
@@ -5477,7 +5474,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="6">
         <v>62500000</v>
@@ -5485,7 +5482,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="6">
         <v>0.002324</v>
@@ -5493,7 +5490,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="6">
         <v>0.005066</v>
@@ -5501,7 +5498,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="6">
         <v>5E-05</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -5517,7 +5514,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -5525,7 +5522,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="6">
         <v>0.018067</v>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="6">
         <v>0.038556</v>
@@ -5541,7 +5538,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="6">
         <v>3.86778</v>
@@ -5549,7 +5546,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="6">
         <v>0.003</v>
@@ -5557,7 +5554,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="6">
         <v>0.3</v>
@@ -5573,7 +5570,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="6">
         <v>0</v>
@@ -5581,7 +5578,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="6">
         <v>0.005</v>
@@ -5589,7 +5586,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -5597,7 +5594,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -5605,7 +5602,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" s="6">
         <v>0.05</v>
@@ -5613,7 +5610,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -5621,7 +5618,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" s="6">
         <v>0.75</v>
@@ -5629,7 +5626,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" s="6">
         <v>0.375</v>
@@ -5637,7 +5634,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="6">
         <v>0.75</v>
@@ -5645,7 +5642,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="6">
         <v>0.375</v>
@@ -5653,7 +5650,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>31</v>
@@ -5661,7 +5658,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="6">
         <v>1.10995</v>
@@ -5669,7 +5666,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" s="6">
         <v>10.34908</v>
@@ -5677,10 +5674,10 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5702,18 +5699,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
